--- a/SpiMDM/系统权限相关/新增工厂权限配置报告(1).xlsx
+++ b/SpiMDM/系统权限相关/新增工厂权限配置报告(1).xlsx
@@ -11,12 +11,12 @@
     <sheet name="分配规则" sheetId="1" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="21">
   <si>
     <t xml:space="preserve">Haier中国工厂     </t>
   </si>
@@ -29,59 +29,78 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t xml:space="preserve">OTC OEM工厂 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>贸易公司代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一个或多个</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工厂分类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工厂类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所属单位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品大类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总部</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分片权限逻辑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t xml:space="preserve">Haier总部OEM工厂-1169小家电     </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">OTC OEM工厂 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>贸易公司代码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>一个或多个</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>人员</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>备注</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>工厂分类</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>工厂类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>所属单位</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>产品大类</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>总部</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>分片权限逻辑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>备件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>成品</t>
+    <t>账号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>姓名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">备件中给相应的产品大类对应的plmPlantManger配置
+PlantCode
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>给指定的MRPPlantManger配置上PlantCode。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>给指定的disPlmPlantManger 配置上PlantCode；
+给指定的noBomMaterialManger配置上PlantCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>给贸易公司下的SalesGroupManger成品维护人员配置上PlantCode</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -128,7 +147,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -177,11 +196,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -200,6 +230,9 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -209,8 +242,20 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -516,21 +561,21 @@
   <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="15.5" customWidth="1"/>
-    <col min="2" max="2" width="28.75" customWidth="1"/>
+    <col min="1" max="1" width="11" customWidth="1"/>
+    <col min="2" max="2" width="17.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -621,7 +666,7 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.5" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -634,33 +679,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C1" s="9" t="s">
+      <c r="E1" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="F1" s="9"/>
+    </row>
+    <row r="2" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="11"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F1" s="8"/>
-    </row>
-    <row r="2" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="10"/>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="F2" s="11" t="s">
-        <v>16</v>
+      <c r="F2" s="8" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -671,13 +716,17 @@
         <v>0</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
+        <v>5</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="4" spans="1:6" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="4">
@@ -687,13 +736,13 @@
         <v>1</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
+        <v>5</v>
+      </c>
+      <c r="E4" s="13"/>
+      <c r="F4" s="15"/>
     </row>
     <row r="5" spans="1:6" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="4">
@@ -703,48 +752,54 @@
         <v>2</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
+      <c r="F5" s="15"/>
     </row>
     <row r="6" spans="1:6" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="4">
         <v>4</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
+      <c r="F6" s="13"/>
     </row>
     <row r="7" spans="1:6" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="4">
         <v>5</v>
       </c>
       <c r="B7" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="D7" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
+      <c r="E7" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>20</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="7">
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F6"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
